--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vidhya\Downloads\MarsFramework\MarsFramework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MVPProject\Competitiontask1\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA428059-39C0-4B90-8BCF-7E49202B9138}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D007D-068B-4289-BD0B-2631490D771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>Url</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>http://www.skillswap.pro/Home</t>
-  </si>
-  <si>
     <t>Language</t>
   </si>
   <si>
@@ -118,6 +115,15 @@
   </si>
   <si>
     <t>3 years as Oracle Developer and 2 years as Project Management Operations Lead</t>
+  </si>
+  <si>
+    <t>http://localhost:5000/</t>
+  </si>
+  <si>
+    <t>sreesat25@yahoo.co.in</t>
+  </si>
+  <si>
+    <t>Amma260872</t>
   </si>
 </sst>
 </file>
@@ -519,47 +525,47 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.81640625" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="27.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" customWidth="1"/>
+    <col min="5" max="5" width="27.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>26</v>
-      </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -574,18 +580,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.54296875" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,15 +602,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -622,84 +628,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="1" max="3" width="20.1796875" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.81640625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="10" width="52.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" customWidth="1"/>
+    <col min="9" max="9" width="18.453125" customWidth="1"/>
+    <col min="10" max="10" width="52.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="J2" t="s">
         <v>30</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -8,21 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MVPProject\Competitiontask1\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7D007D-068B-4289-BD0B-2631490D771A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0926889-26DF-434E-83DA-9192FEF57055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId2"/>
-    <sheet name="Profile" sheetId="2" r:id="rId3"/>
+    <sheet name="&quot;ManageListings" sheetId="5" r:id="rId2"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId3"/>
+    <sheet name="ShareSkill" sheetId="4" r:id="rId4"/>
+    <sheet name="Profile" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Url</t>
   </si>
@@ -124,6 +126,87 @@
   </si>
   <si>
     <t>Amma260872</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>ServiceType</t>
+  </si>
+  <si>
+    <t>LocationType</t>
+  </si>
+  <si>
+    <t>Startdate</t>
+  </si>
+  <si>
+    <t>Enddate</t>
+  </si>
+  <si>
+    <t>Selectday</t>
+  </si>
+  <si>
+    <t>Starttime</t>
+  </si>
+  <si>
+    <t>Endtime</t>
+  </si>
+  <si>
+    <t>SkillTrade</t>
+  </si>
+  <si>
+    <t>Skill-Exchange</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Would like to provide selenium training for beginners</t>
+  </si>
+  <si>
+    <t>Programming &amp; Tech</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>One-off service</t>
+  </si>
+  <si>
+    <t>On-site</t>
+  </si>
+  <si>
+    <t>Mon</t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Hidden</t>
+  </si>
+  <si>
+    <t>Deleteaction</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -176,10 +259,12 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -577,11 +662,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C435061D-5197-4A8C-9AE0-B97AB37D0BF9}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -624,7 +744,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AED40C2-E387-420A-8307-8C19194F1444}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="39.26953125" customWidth="1"/>
+    <col min="8" max="8" width="16.08984375" customWidth="1"/>
+    <col min="9" max="9" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44663</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44724</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="4">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>

--- a/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/ExcelData/TestData.xlsx
@@ -8,23 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MVPProject\Competitiontask1\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0926889-26DF-434E-83DA-9192FEF57055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC42FF88-E8DD-4C53-B609-8B6608D47B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
     <sheet name="&quot;ManageListings" sheetId="5" r:id="rId2"/>
-    <sheet name="SignIn" sheetId="1" r:id="rId3"/>
-    <sheet name="ShareSkill" sheetId="4" r:id="rId4"/>
-    <sheet name="Profile" sheetId="2" r:id="rId5"/>
+    <sheet name="EditShareSkill" sheetId="6" r:id="rId3"/>
+    <sheet name="SignIn" sheetId="1" r:id="rId4"/>
+    <sheet name="ShareSkill" sheetId="4" r:id="rId5"/>
+    <sheet name="Profile" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="65">
   <si>
     <t>Url</t>
   </si>
@@ -182,12 +183,6 @@
     <t>Programming &amp; Tech</t>
   </si>
   <si>
-    <t>QA</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>One-off service</t>
   </si>
   <si>
@@ -207,6 +202,24 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Would like to provide Python training for beginners</t>
+  </si>
+  <si>
+    <t>Web &amp; Mobile App</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>19:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -665,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C435061D-5197-4A8C-9AE0-B97AB37D0BF9}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
@@ -680,7 +693,7 @@
         <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -688,7 +701,7 @@
         <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -697,6 +710,128 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF2C0763-148D-4F1B-AC04-51789190BC64}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.26953125" customWidth="1"/>
+    <col min="2" max="2" width="42.81640625" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.54296875" customWidth="1"/>
+    <col min="8" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3">
+        <v>44663</v>
+      </c>
+      <c r="I2" s="3">
+        <v>44724</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -744,19 +879,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AED40C2-E387-420A-8307-8C19194F1444}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="39.26953125" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" customWidth="1"/>
     <col min="8" max="8" width="16.08984375" customWidth="1"/>
     <col min="9" max="9" width="17" customWidth="1"/>
+    <col min="14" max="14" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -820,16 +957,16 @@
         <v>51</v>
       </c>
       <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
       </c>
       <c r="H2" s="3">
         <v>44663</v>
@@ -838,25 +975,25 @@
         <v>44724</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K2" s="4">
         <v>0.75</v>
       </c>
-      <c r="L2" s="4">
-        <v>0.83333333333333337</v>
+      <c r="L2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="M2" t="s">
         <v>46</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
         <v>47</v>
       </c>
       <c r="P2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +1001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
